--- a/RF_Test_data.xlsx
+++ b/RF_Test_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="13_9" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,121 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Loc. Slave</t>
+  </si>
+  <si>
+    <t>Loc. Master</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Distance [m]</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Indoor</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>test length</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tx_timeouts</t>
+  </si>
+  <si>
+    <t>Tx RSSI min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rx_timeouts</t>
+  </si>
+  <si>
+    <t>Rx RSSI min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average2</t>
+  </si>
+  <si>
+    <t>time ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max2</t>
+  </si>
+  <si>
+    <t>calib</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Bitrate</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Orientation Sl</t>
+  </si>
+  <si>
+    <t>Orientation Ms</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>time per pckge</t>
+  </si>
+  <si>
+    <t>time [ms]</t>
+  </si>
+  <si>
+    <t>Kitchen - water</t>
+  </si>
+  <si>
+    <t>outside - wall opp door</t>
+  </si>
+  <si>
+    <t>indoor</t>
+  </si>
+  <si>
+    <t>walls</t>
+  </si>
+  <si>
+    <t>sams desk</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,13 +163,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +191,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S9" totalsRowShown="0">
+  <autoFilter ref="A1:S9"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="time"/>
+    <tableColumn id="12" name="Description"/>
+    <tableColumn id="3" name="Loc. Master"/>
+    <tableColumn id="4" name="Loc. Slave"/>
+    <tableColumn id="19" name="Bitrate"/>
+    <tableColumn id="5" name="Distance [m]"/>
+    <tableColumn id="6" name="Conditions"/>
+    <tableColumn id="7" name="test length"/>
+    <tableColumn id="11" name=" Tx_timeouts"/>
+    <tableColumn id="10" name="Tx RSSI min"/>
+    <tableColumn id="8" name=" average"/>
+    <tableColumn id="9" name=" max"/>
+    <tableColumn id="13" name=" Rx_timeouts"/>
+    <tableColumn id="14" name="Rx RSSI min"/>
+    <tableColumn id="15" name=" average2"/>
+    <tableColumn id="16" name=" max2"/>
+    <tableColumn id="17" name="time ms"/>
+    <tableColumn id="18" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:V14" totalsRowShown="0">
+  <autoFilter ref="A1:V14"/>
+  <tableColumns count="22">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="time"/>
+    <tableColumn id="12" name="Description"/>
+    <tableColumn id="3" name="Loc. Master"/>
+    <tableColumn id="20" name="Orientation Ms"/>
+    <tableColumn id="4" name="Loc. Slave"/>
+    <tableColumn id="21" name="Orientation Sl"/>
+    <tableColumn id="19" name="Bitrate"/>
+    <tableColumn id="5" name="Distance [m]"/>
+    <tableColumn id="22" name="walls"/>
+    <tableColumn id="6" name="Conditions"/>
+    <tableColumn id="7" name="test length"/>
+    <tableColumn id="11" name=" Tx_timeouts"/>
+    <tableColumn id="10" name="Tx RSSI min"/>
+    <tableColumn id="8" name=" average"/>
+    <tableColumn id="9" name=" max"/>
+    <tableColumn id="13" name=" Rx_timeouts"/>
+    <tableColumn id="14" name="Rx RSSI min"/>
+    <tableColumn id="15" name=" average2"/>
+    <tableColumn id="16" name=" max2"/>
+    <tableColumn id="17" name="time [ms]"/>
+    <tableColumn id="18" name="time per pckge" dataDxfId="0">
+      <calculatedColumnFormula>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -144,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +553,1283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42620</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>55555</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>144</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>-34</v>
+      </c>
+      <c r="L2">
+        <v>-33</v>
+      </c>
+      <c r="M2">
+        <v>-33</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-33</v>
+      </c>
+      <c r="P2">
+        <v>-32</v>
+      </c>
+      <c r="Q2">
+        <v>-32</v>
+      </c>
+      <c r="R2">
+        <v>3830</v>
+      </c>
+      <c r="S2" s="3">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>26.597222222222221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42620</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>55555</v>
+      </c>
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>816</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>-57</v>
+      </c>
+      <c r="L3">
+        <v>-43</v>
+      </c>
+      <c r="M3">
+        <v>-31</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-56</v>
+      </c>
+      <c r="P3">
+        <v>-43</v>
+      </c>
+      <c r="Q3">
+        <v>-31</v>
+      </c>
+      <c r="R3">
+        <v>28914</v>
+      </c>
+      <c r="S3" s="3">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>35.433823529411768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42620</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>55555</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>144</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>-44</v>
+      </c>
+      <c r="L4">
+        <v>-42</v>
+      </c>
+      <c r="M4">
+        <v>-42</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-43</v>
+      </c>
+      <c r="P4">
+        <v>-41</v>
+      </c>
+      <c r="Q4">
+        <v>-41</v>
+      </c>
+      <c r="R4">
+        <v>4554</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>31.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42620</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>55555</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>816</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-50</v>
+      </c>
+      <c r="L5">
+        <v>-46</v>
+      </c>
+      <c r="M5">
+        <v>-43</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-50</v>
+      </c>
+      <c r="P5">
+        <v>-45</v>
+      </c>
+      <c r="Q5">
+        <v>-43</v>
+      </c>
+      <c r="R5">
+        <v>21948</v>
+      </c>
+      <c r="S5" s="3">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>26.897058823529413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>19200</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-92</v>
+      </c>
+      <c r="L6">
+        <v>-62</v>
+      </c>
+      <c r="M6">
+        <v>-35</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-91</v>
+      </c>
+      <c r="P6">
+        <v>-61</v>
+      </c>
+      <c r="Q6">
+        <v>-35</v>
+      </c>
+      <c r="R6">
+        <v>269031</v>
+      </c>
+      <c r="S6">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>672.57749999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" t="e">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8" t="e">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9" t="e">
+        <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>55555</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-82</v>
+      </c>
+      <c r="O2">
+        <v>-78</v>
+      </c>
+      <c r="P2">
+        <v>-76</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>-81</v>
+      </c>
+      <c r="S2">
+        <v>-77</v>
+      </c>
+      <c r="T2">
+        <v>-74</v>
+      </c>
+      <c r="U2">
+        <v>15650</v>
+      </c>
+      <c r="V2" s="3">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>39.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>55555</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>400</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>-90</v>
+      </c>
+      <c r="O3">
+        <v>-83</v>
+      </c>
+      <c r="P3">
+        <v>-80</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>-90</v>
+      </c>
+      <c r="S3">
+        <v>-82</v>
+      </c>
+      <c r="T3">
+        <v>-80</v>
+      </c>
+      <c r="U3">
+        <v>40464</v>
+      </c>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>55555</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>-80</v>
+      </c>
+      <c r="O4">
+        <v>-78</v>
+      </c>
+      <c r="P4">
+        <v>-78</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>-78</v>
+      </c>
+      <c r="S4">
+        <v>-77</v>
+      </c>
+      <c r="T4">
+        <v>-77</v>
+      </c>
+      <c r="U4">
+        <v>54092</v>
+      </c>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>55555</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>-90</v>
+      </c>
+      <c r="O5">
+        <v>-81</v>
+      </c>
+      <c r="P5">
+        <v>-78</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>-89</v>
+      </c>
+      <c r="S5">
+        <v>-80</v>
+      </c>
+      <c r="T5">
+        <v>-78</v>
+      </c>
+      <c r="U5">
+        <v>66710</v>
+      </c>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42626</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>55555</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>-98</v>
+      </c>
+      <c r="O6">
+        <v>-90</v>
+      </c>
+      <c r="P6">
+        <v>-87</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>-98</v>
+      </c>
+      <c r="S6">
+        <v>-89</v>
+      </c>
+      <c r="T6">
+        <v>-86</v>
+      </c>
+      <c r="U6">
+        <v>96492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42626</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>55555</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>-93</v>
+      </c>
+      <c r="O7">
+        <v>-91</v>
+      </c>
+      <c r="P7">
+        <v>-88</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>-93</v>
+      </c>
+      <c r="S7">
+        <v>-90</v>
+      </c>
+      <c r="T7">
+        <v>-87</v>
+      </c>
+      <c r="U7">
+        <v>118898</v>
+      </c>
+      <c r="V7">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>297.245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42626</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>55555</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>-90</v>
+      </c>
+      <c r="O8">
+        <v>-88</v>
+      </c>
+      <c r="P8">
+        <v>-87</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>-90</v>
+      </c>
+      <c r="S8">
+        <v>-87</v>
+      </c>
+      <c r="T8">
+        <v>-86</v>
+      </c>
+      <c r="U8">
+        <v>135721</v>
+      </c>
+      <c r="V8">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>339.30250000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42626</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>55555</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>400</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-87</v>
+      </c>
+      <c r="O9">
+        <v>-85</v>
+      </c>
+      <c r="P9">
+        <v>-84</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>-86</v>
+      </c>
+      <c r="S9">
+        <v>-84</v>
+      </c>
+      <c r="T9">
+        <v>-83</v>
+      </c>
+      <c r="U9">
+        <v>147535</v>
+      </c>
+      <c r="V9">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>368.83749999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42626</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>55555</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>400</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>-86</v>
+      </c>
+      <c r="O10">
+        <v>-85</v>
+      </c>
+      <c r="P10">
+        <v>-84</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>-86</v>
+      </c>
+      <c r="S10">
+        <v>-84</v>
+      </c>
+      <c r="T10">
+        <v>-83</v>
+      </c>
+      <c r="U10">
+        <v>160363</v>
+      </c>
+      <c r="V10" s="4">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>400.90750000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>55555</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>400</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>-89</v>
+      </c>
+      <c r="O11">
+        <v>-85</v>
+      </c>
+      <c r="P11">
+        <v>-85</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>-89</v>
+      </c>
+      <c r="S11">
+        <v>-85</v>
+      </c>
+      <c r="T11">
+        <v>-84</v>
+      </c>
+      <c r="U11">
+        <v>175401</v>
+      </c>
+      <c r="V11" s="4">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>438.5025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>55555</v>
+      </c>
+      <c r="L12">
+        <v>400</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>-83</v>
+      </c>
+      <c r="O12">
+        <v>-81</v>
+      </c>
+      <c r="P12">
+        <v>-79</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>-81</v>
+      </c>
+      <c r="S12">
+        <v>-80</v>
+      </c>
+      <c r="T12">
+        <v>-79</v>
+      </c>
+      <c r="U12">
+        <v>200588</v>
+      </c>
+      <c r="V12" s="4">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>501.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>55555</v>
+      </c>
+      <c r="L13">
+        <v>400</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>-91</v>
+      </c>
+      <c r="O13">
+        <v>-84</v>
+      </c>
+      <c r="P13">
+        <v>-81</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>-90</v>
+      </c>
+      <c r="S13">
+        <v>-83</v>
+      </c>
+      <c r="T13">
+        <v>-80</v>
+      </c>
+      <c r="U13">
+        <v>215587</v>
+      </c>
+      <c r="V13" s="4">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>538.96749999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>55555</v>
+      </c>
+      <c r="L14">
+        <v>400</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>-88</v>
+      </c>
+      <c r="O14">
+        <v>-84</v>
+      </c>
+      <c r="P14">
+        <v>-81</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>-87</v>
+      </c>
+      <c r="S14">
+        <v>-83</v>
+      </c>
+      <c r="T14">
+        <v>-80</v>
+      </c>
+      <c r="U14">
+        <v>228380</v>
+      </c>
+      <c r="V14" s="4">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>570.95000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <v>55555</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>-88</v>
+      </c>
+      <c r="O15">
+        <v>-84</v>
+      </c>
+      <c r="P15">
+        <v>-81</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>-87</v>
+      </c>
+      <c r="S15">
+        <v>-83</v>
+      </c>
+      <c r="T15">
+        <v>-80</v>
+      </c>
+      <c r="U15">
+        <v>228380</v>
+      </c>
+      <c r="V15" s="4" t="e">
+        <f>Table13[[#This Row],[time '[ms']]]/Table13[[#This Row],[test length]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>